--- a/task.xlsx
+++ b/task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88FF51B-39B7-417B-B185-23BF92F5B398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39C4821-BB53-4C2E-8C60-2F85BD4B5B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="28800" windowHeight="15435" xr2:uid="{4B2B56B1-63B4-4DD6-8DB2-4E37F33374C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{4B2B56B1-63B4-4DD6-8DB2-4E37F33374C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>iOS</t>
   </si>
@@ -45,18 +45,6 @@
     <t>Tecnologia</t>
   </si>
   <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>[And] Shimmer</t>
-  </si>
-  <si>
-    <t>[iOS] Shimmer</t>
-  </si>
-  <si>
-    <t>Angular 2</t>
-  </si>
-  <si>
     <t>Testes</t>
   </si>
   <si>
@@ -75,9 +63,6 @@
     <t>Não iniciado no prazo</t>
   </si>
   <si>
-    <t>Backlog</t>
-  </si>
-  <si>
     <t>Due Date</t>
   </si>
   <si>
@@ -99,10 +84,23 @@
     <t>[And] Activiter IDL</t>
   </si>
   <si>
-    <t>[iOS] Activiter As-Is</t>
-  </si>
-  <si>
-    <t>[And] Activiter As-Is</t>
+    <t>Informação</t>
+  </si>
+  <si>
+    <t>Problemas na segunda semana
+Tudo certo no fim</t>
+  </si>
+  <si>
+    <t>Em Produção</t>
+  </si>
+  <si>
+    <t>Dependências</t>
+  </si>
+  <si>
+    <t>[Testes] And Activiter IDL</t>
+  </si>
+  <si>
+    <t>[Acessib] And Activiter IDL</t>
   </si>
 </sst>
 </file>
@@ -138,9 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,25 +456,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FAF675-CE6C-48FD-9AB4-BD7BAD23FBFB}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -481,24 +483,30 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>45065</v>
@@ -506,23 +514,28 @@
       <c r="C2" s="1">
         <v>45146</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>45156</v>
+      </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>45147</v>
+        <v>45139</v>
       </c>
       <c r="C3" s="1">
         <v>45153</v>
@@ -531,18 +544,21 @@
         <v>45157</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>45154</v>
@@ -550,20 +566,25 @@
       <c r="C4" s="1">
         <v>45160</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>45160</v>
+      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>45065</v>
@@ -576,137 +597,79 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
-        <v>45065</v>
+        <v>45156</v>
       </c>
       <c r="C6" s="1">
-        <v>45155</v>
+        <v>45158</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>45087</v>
+        <v>45158</v>
       </c>
       <c r="C7" s="1">
-        <v>45153</v>
+        <v>45160</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45110</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45164</v>
-      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45188</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45217</v>
-      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45209</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45218</v>
-      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45271</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45282</v>
-      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39C4821-BB53-4C2E-8C60-2F85BD4B5B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E8B6B2-C08A-4874-B5EB-D8BD0BB7C5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{4B2B56B1-63B4-4DD6-8DB2-4E37F33374C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>iOS</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>[Acessib] And Activiter IDL</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>20/06/2023 - 25/06/2023</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FAF675-CE6C-48FD-9AB4-BD7BAD23FBFB}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +481,7 @@
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -503,8 +509,11 @@
       <c r="I1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -529,8 +538,11 @@
       <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -556,7 +568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -582,7 +594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -603,7 +615,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -627,7 +639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -651,22 +663,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E8B6B2-C08A-4874-B5EB-D8BD0BB7C5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9323EBE9-BE94-4BB3-9AB9-EEC73796206A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{4B2B56B1-63B4-4DD6-8DB2-4E37F33374C4}"/>
+    <workbookView xWindow="2430" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{4B2B56B1-63B4-4DD6-8DB2-4E37F33374C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,18 +72,6 @@
     <t>Concluído</t>
   </si>
   <si>
-    <t>[iOS] Activiter IDL</t>
-  </si>
-  <si>
-    <t>[Testes] Activiter IDL</t>
-  </si>
-  <si>
-    <t>[Acessib] Activiter IDL</t>
-  </si>
-  <si>
-    <t>[And] Activiter IDL</t>
-  </si>
-  <si>
     <t>Informação</t>
   </si>
   <si>
@@ -97,16 +85,28 @@
     <t>Dependências</t>
   </si>
   <si>
-    <t>[Testes] And Activiter IDL</t>
-  </si>
-  <si>
-    <t>[Acessib] And Activiter IDL</t>
-  </si>
-  <si>
     <t>Bugs</t>
   </si>
   <si>
     <t>20/06/2023 - 25/06/2023</t>
+  </si>
+  <si>
+    <t>[iOS] Task NUI</t>
+  </si>
+  <si>
+    <t>[Testes] Task NUI</t>
+  </si>
+  <si>
+    <t>[Acessib] Task NUI</t>
+  </si>
+  <si>
+    <t>[And] Task NUI</t>
+  </si>
+  <si>
+    <t>[Testes] And Task NUI</t>
+  </si>
+  <si>
+    <t>[Acessib] And Task NUI</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,18 +504,18 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>45065</v>
@@ -530,21 +530,21 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>99</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>45139</v>
@@ -565,12 +565,12 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>45154</v>
@@ -591,12 +591,12 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>45065</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>45156</v>
@@ -636,12 +636,12 @@
         <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <v>45158</v>
@@ -660,7 +660,7 @@
         <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
